--- a/biology/Médecine/Anandi_Gopal_Joshi/Anandi_Gopal_Joshi.xlsx
+++ b/biology/Médecine/Anandi_Gopal_Joshi/Anandi_Gopal_Joshi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anandi Gopal Joshi (31 mars 1865 - 26 février 1887) est une femme médecin indienne. En 1885, elle est l'une des deux premières femmes de ce pays à obtenir un diplôme universitaire en médecine occidentale, l'autre étant Kadambini Ganguly, la même année. Elle est aussi la première femme hindoue à accomplir ceci[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anandi Gopal Joshi (31 mars 1865 - 26 février 1887) est une femme médecin indienne. En 1885, elle est l'une des deux premières femmes de ce pays à obtenir un diplôme universitaire en médecine occidentale, l'autre étant Kadambini Ganguly, la même année. Elle est aussi la première femme hindoue à accomplir ceci.
 À 14 ans, elle accouche d'un fils qui ne survit que 10 jours, à cause de manques de soins hospitaliers. C'est un point tournant par rapport à sa décision de poursuivre des études médicales.
-Malgré les opinions des communautés hindoues et chrétiennes, elle parvient à s'inscrire au Women's Medical College of Pennsylvania tout en conservant sa religion[2]. C'est aussi le premier programme d'études médicales pour femmes au monde.
+Malgré les opinions des communautés hindoues et chrétiennes, elle parvient à s'inscrire au Women's Medical College of Pennsylvania tout en conservant sa religion. C'est aussi le premier programme d'études médicales pour femmes au monde.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cratère vénusien Joshee a été nommé en son honneur [3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cratère vénusien Joshee a été nommé en son honneur .
 </t>
         </is>
       </c>
